--- a/contratos/contratos-12-2018.xlsx
+++ b/contratos/contratos-12-2018.xlsx
@@ -1492,604 +1492,604 @@
     <t>192</t>
   </si>
   <si>
-    <t>8.000,00</t>
-  </si>
-  <si>
-    <t>5.130,00</t>
-  </si>
-  <si>
-    <t>23.000,00</t>
-  </si>
-  <si>
-    <t>31.225,00</t>
-  </si>
-  <si>
-    <t>578.500,00</t>
-  </si>
-  <si>
-    <t>2.144.000,00</t>
-  </si>
-  <si>
-    <t>250.000,00</t>
-  </si>
-  <si>
-    <t>535,00</t>
-  </si>
-  <si>
-    <t>13.455,00</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>4.225,00</t>
-  </si>
-  <si>
-    <t>752.275,54</t>
-  </si>
-  <si>
-    <t>13.000,00</t>
-  </si>
-  <si>
-    <t>48.400,00</t>
-  </si>
-  <si>
-    <t>479.500,00</t>
-  </si>
-  <si>
-    <t>430,00</t>
-  </si>
-  <si>
-    <t>1.417.860,54</t>
-  </si>
-  <si>
-    <t>638.231,93</t>
-  </si>
-  <si>
-    <t>8.973,56</t>
-  </si>
-  <si>
-    <t>35.750,50</t>
-  </si>
-  <si>
-    <t>70.120,85</t>
-  </si>
-  <si>
-    <t>14.847,00</t>
-  </si>
-  <si>
-    <t>92.150,00</t>
-  </si>
-  <si>
-    <t>5.769,80</t>
-  </si>
-  <si>
-    <t>58.656,76</t>
-  </si>
-  <si>
-    <t>1.470,00</t>
-  </si>
-  <si>
-    <t>84.223,94</t>
-  </si>
-  <si>
-    <t>39.900,00</t>
-  </si>
-  <si>
-    <t>21.600,00</t>
-  </si>
-  <si>
-    <t>8.400,00</t>
-  </si>
-  <si>
-    <t>406,68</t>
-  </si>
-  <si>
-    <t>75,92</t>
-  </si>
-  <si>
-    <t>3.581.153,85</t>
-  </si>
-  <si>
-    <t>9.870,00</t>
-  </si>
-  <si>
-    <t>37.215,09</t>
-  </si>
-  <si>
-    <t>11.580,94</t>
-  </si>
-  <si>
-    <t>26.797,00</t>
-  </si>
-  <si>
-    <t>181.399,20</t>
-  </si>
-  <si>
-    <t>11.352,00</t>
-  </si>
-  <si>
-    <t>10.236,94</t>
-  </si>
-  <si>
-    <t>51.470,00</t>
-  </si>
-  <si>
-    <t>1.143,36</t>
-  </si>
-  <si>
-    <t>43.417,57</t>
-  </si>
-  <si>
-    <t>210,00</t>
-  </si>
-  <si>
-    <t>10.365,00</t>
-  </si>
-  <si>
-    <t>2.269,77</t>
-  </si>
-  <si>
-    <t>2.676,46</t>
-  </si>
-  <si>
-    <t>14.405,00</t>
-  </si>
-  <si>
-    <t>19.036,74</t>
-  </si>
-  <si>
-    <t>2.767,40</t>
-  </si>
-  <si>
-    <t>1.066,04</t>
-  </si>
-  <si>
-    <t>2.715,00</t>
-  </si>
-  <si>
-    <t>11.250,00</t>
-  </si>
-  <si>
-    <t>34.396,92</t>
-  </si>
-  <si>
-    <t>750,00</t>
-  </si>
-  <si>
-    <t>79.450,00</t>
-  </si>
-  <si>
-    <t>127.000,00</t>
-  </si>
-  <si>
-    <t>5.400,00</t>
-  </si>
-  <si>
-    <t>56.010,00</t>
-  </si>
-  <si>
-    <t>48.450,00</t>
-  </si>
-  <si>
-    <t>38.400,00</t>
-  </si>
-  <si>
-    <t>40.600,00</t>
-  </si>
-  <si>
-    <t>7.583,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>550,00</t>
-  </si>
-  <si>
-    <t>12.100,00</t>
-  </si>
-  <si>
-    <t>1.035,00</t>
-  </si>
-  <si>
-    <t>22.250,00</t>
-  </si>
-  <si>
-    <t>107.000,00</t>
-  </si>
-  <si>
-    <t>53.006,00</t>
-  </si>
-  <si>
-    <t>80.203,00</t>
-  </si>
-  <si>
-    <t>40.750,00</t>
-  </si>
-  <si>
-    <t>11.557,14</t>
-  </si>
-  <si>
-    <t>36.500,00</t>
-  </si>
-  <si>
-    <t>12.070,00</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>350,00</t>
-  </si>
-  <si>
-    <t>0,10</t>
-  </si>
-  <si>
-    <t>4.752,00</t>
-  </si>
-  <si>
-    <t>9,60</t>
-  </si>
-  <si>
-    <t>45.000,00</t>
-  </si>
-  <si>
-    <t>429,60</t>
-  </si>
-  <si>
-    <t>21.991,70</t>
-  </si>
-  <si>
-    <t>40.244,81</t>
-  </si>
-  <si>
-    <t>1.152,00</t>
-  </si>
-  <si>
-    <t>2.661,15</t>
-  </si>
-  <si>
-    <t>1.366,00</t>
-  </si>
-  <si>
-    <t>900,00</t>
-  </si>
-  <si>
-    <t>844,90</t>
-  </si>
-  <si>
-    <t>86.504,40</t>
-  </si>
-  <si>
-    <t>13.160,00</t>
-  </si>
-  <si>
-    <t>2.620,00</t>
-  </si>
-  <si>
-    <t>2.682,00</t>
-  </si>
-  <si>
-    <t>2.981,16</t>
-  </si>
-  <si>
-    <t>2.100,00</t>
-  </si>
-  <si>
-    <t>10.475,00</t>
-  </si>
-  <si>
-    <t>12.230,00</t>
-  </si>
-  <si>
-    <t>13.207,00</t>
-  </si>
-  <si>
-    <t>32.096,55</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>37.285,00</t>
-  </si>
-  <si>
-    <t>11.339,33</t>
-  </si>
-  <si>
-    <t>770,00</t>
-  </si>
-  <si>
-    <t>215,00</t>
-  </si>
-  <si>
-    <t>15.535,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>11.900,00</t>
-  </si>
-  <si>
-    <t>27.100,00</t>
-  </si>
-  <si>
-    <t>57.000,00</t>
-  </si>
-  <si>
-    <t>116.000,00</t>
-  </si>
-  <si>
-    <t>35.000,00</t>
-  </si>
-  <si>
-    <t>13.500,00</t>
-  </si>
-  <si>
-    <t>31.000,00</t>
-  </si>
-  <si>
-    <t>10.000,00</t>
-  </si>
-  <si>
-    <t>66.000,00</t>
-  </si>
-  <si>
-    <t>779.000,00</t>
-  </si>
-  <si>
-    <t>25.100,00</t>
-  </si>
-  <si>
-    <t>23.709,62</t>
-  </si>
-  <si>
-    <t>28.333,52</t>
-  </si>
-  <si>
-    <t>8.780,00</t>
-  </si>
-  <si>
-    <t>772,92</t>
-  </si>
-  <si>
-    <t>197,22</t>
-  </si>
-  <si>
-    <t>5.262,00</t>
-  </si>
-  <si>
-    <t>240,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>6.050,00</t>
-  </si>
-  <si>
-    <t>5.000,00</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>8.500,00</t>
-  </si>
-  <si>
-    <t>43.504,40</t>
-  </si>
-  <si>
-    <t>15.000,00</t>
-  </si>
-  <si>
-    <t>4.860,00</t>
-  </si>
-  <si>
-    <t>3.800,00</t>
-  </si>
-  <si>
-    <t>46.113,00</t>
-  </si>
-  <si>
-    <t>18.500,00</t>
-  </si>
-  <si>
-    <t>173.700,00</t>
-  </si>
-  <si>
-    <t>7.260,00</t>
-  </si>
-  <si>
-    <t>288,60</t>
-  </si>
-  <si>
-    <t>11.858,00</t>
-  </si>
-  <si>
-    <t>12.900,00</t>
-  </si>
-  <si>
-    <t>9.100,00</t>
-  </si>
-  <si>
-    <t>31.195,00</t>
-  </si>
-  <si>
-    <t>30.350,00</t>
-  </si>
-  <si>
-    <t>123.490,00</t>
-  </si>
-  <si>
-    <t>3.781,25</t>
-  </si>
-  <si>
-    <t>6.491,00</t>
-  </si>
-  <si>
-    <t>9.058,60</t>
-  </si>
-  <si>
-    <t>360,00</t>
-  </si>
-  <si>
-    <t>297,32</t>
-  </si>
-  <si>
-    <t>166.145,10</t>
-  </si>
-  <si>
-    <t>3.042,00</t>
-  </si>
-  <si>
-    <t>10.925,00</t>
-  </si>
-  <si>
-    <t>274.145,00</t>
-  </si>
-  <si>
-    <t>32.675,38</t>
-  </si>
-  <si>
-    <t>11.985,00</t>
-  </si>
-  <si>
-    <t>10.704,00</t>
-  </si>
-  <si>
-    <t>11.160,00</t>
-  </si>
-  <si>
-    <t>6.800,00</t>
-  </si>
-  <si>
-    <t>92.641,11</t>
-  </si>
-  <si>
-    <t>60.000,00</t>
-  </si>
-  <si>
-    <t>30.000,00</t>
-  </si>
-  <si>
-    <t>75.000,00</t>
-  </si>
-  <si>
-    <t>13.200,00</t>
-  </si>
-  <si>
-    <t>480.000,00</t>
-  </si>
-  <si>
-    <t>21.888,00</t>
-  </si>
-  <si>
-    <t>10.052.200,19</t>
-  </si>
-  <si>
-    <t>6.395,00</t>
-  </si>
-  <si>
-    <t>6.047.027,00</t>
-  </si>
-  <si>
-    <t>201.500,00</t>
-  </si>
-  <si>
-    <t>266.500,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>208.000,00</t>
-  </si>
-  <si>
-    <t>377.700,00</t>
-  </si>
-  <si>
-    <t>305.400,00</t>
-  </si>
-  <si>
-    <t>380.800,00</t>
-  </si>
-  <si>
-    <t>171.200,00</t>
-  </si>
-  <si>
-    <t>338.300,00</t>
-  </si>
-  <si>
-    <t>396.500,00</t>
-  </si>
-  <si>
-    <t>403.000,00</t>
-  </si>
-  <si>
-    <t>256.300,00</t>
-  </si>
-  <si>
-    <t>416.900,00</t>
-  </si>
-  <si>
-    <t>743.300,00</t>
-  </si>
-  <si>
-    <t>367.700,00</t>
-  </si>
-  <si>
-    <t>21.000,00</t>
-  </si>
-  <si>
-    <t>533.900,00</t>
-  </si>
-  <si>
-    <t>212.470,00</t>
-  </si>
-  <si>
-    <t>922.020,00</t>
-  </si>
-  <si>
-    <t>20.400,00</t>
-  </si>
-  <si>
-    <t>628.579,16</t>
-  </si>
-  <si>
-    <t>74.764,20</t>
-  </si>
-  <si>
-    <t>1.400,00</t>
-  </si>
-  <si>
-    <t>70.500,00</t>
-  </si>
-  <si>
-    <t>208.752,00</t>
-  </si>
-  <si>
-    <t>11.000,00</t>
-  </si>
-  <si>
-    <t>118.000,00</t>
-  </si>
-  <si>
-    <t>9.600,00</t>
-  </si>
-  <si>
-    <t>96.882,04</t>
-  </si>
-  <si>
-    <t>15.500,00</t>
-  </si>
-  <si>
-    <t>380,00</t>
-  </si>
-  <si>
-    <t>48.985,00</t>
+    <t>8000.00</t>
+  </si>
+  <si>
+    <t>5130.00</t>
+  </si>
+  <si>
+    <t>23000.00</t>
+  </si>
+  <si>
+    <t>31225.00</t>
+  </si>
+  <si>
+    <t>578500.00</t>
+  </si>
+  <si>
+    <t>2144000.00</t>
+  </si>
+  <si>
+    <t>250000.00</t>
+  </si>
+  <si>
+    <t>535.00</t>
+  </si>
+  <si>
+    <t>13455.00</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>4225.00</t>
+  </si>
+  <si>
+    <t>752275.54</t>
+  </si>
+  <si>
+    <t>13000.00</t>
+  </si>
+  <si>
+    <t>48400.00</t>
+  </si>
+  <si>
+    <t>479500.00</t>
+  </si>
+  <si>
+    <t>430.00</t>
+  </si>
+  <si>
+    <t>1417860.54</t>
+  </si>
+  <si>
+    <t>638231.93</t>
+  </si>
+  <si>
+    <t>8973.56</t>
+  </si>
+  <si>
+    <t>35750.50</t>
+  </si>
+  <si>
+    <t>70120.85</t>
+  </si>
+  <si>
+    <t>14847.00</t>
+  </si>
+  <si>
+    <t>92150.00</t>
+  </si>
+  <si>
+    <t>5769.80</t>
+  </si>
+  <si>
+    <t>58656.76</t>
+  </si>
+  <si>
+    <t>1470.00</t>
+  </si>
+  <si>
+    <t>84223.94</t>
+  </si>
+  <si>
+    <t>39900.00</t>
+  </si>
+  <si>
+    <t>21600.00</t>
+  </si>
+  <si>
+    <t>8400.00</t>
+  </si>
+  <si>
+    <t>406.68</t>
+  </si>
+  <si>
+    <t>75.92</t>
+  </si>
+  <si>
+    <t>3581153.85</t>
+  </si>
+  <si>
+    <t>9870.00</t>
+  </si>
+  <si>
+    <t>37215.09</t>
+  </si>
+  <si>
+    <t>11580.94</t>
+  </si>
+  <si>
+    <t>26797.00</t>
+  </si>
+  <si>
+    <t>181399.20</t>
+  </si>
+  <si>
+    <t>11352.00</t>
+  </si>
+  <si>
+    <t>10236.94</t>
+  </si>
+  <si>
+    <t>51470.00</t>
+  </si>
+  <si>
+    <t>1143.36</t>
+  </si>
+  <si>
+    <t>43417.57</t>
+  </si>
+  <si>
+    <t>210.00</t>
+  </si>
+  <si>
+    <t>10365.00</t>
+  </si>
+  <si>
+    <t>2269.77</t>
+  </si>
+  <si>
+    <t>2676.46</t>
+  </si>
+  <si>
+    <t>14405.00</t>
+  </si>
+  <si>
+    <t>19036.74</t>
+  </si>
+  <si>
+    <t>2767.40</t>
+  </si>
+  <si>
+    <t>1066.04</t>
+  </si>
+  <si>
+    <t>2715.00</t>
+  </si>
+  <si>
+    <t>11250.00</t>
+  </si>
+  <si>
+    <t>34396.92</t>
+  </si>
+  <si>
+    <t>750.00</t>
+  </si>
+  <si>
+    <t>79450.00</t>
+  </si>
+  <si>
+    <t>127000.00</t>
+  </si>
+  <si>
+    <t>5400.00</t>
+  </si>
+  <si>
+    <t>56010.00</t>
+  </si>
+  <si>
+    <t>48450.00</t>
+  </si>
+  <si>
+    <t>38400.00</t>
+  </si>
+  <si>
+    <t>40600.00</t>
+  </si>
+  <si>
+    <t>7583.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>550.00</t>
+  </si>
+  <si>
+    <t>12100.00</t>
+  </si>
+  <si>
+    <t>1035.00</t>
+  </si>
+  <si>
+    <t>22250.00</t>
+  </si>
+  <si>
+    <t>107000.00</t>
+  </si>
+  <si>
+    <t>53006.00</t>
+  </si>
+  <si>
+    <t>80203.00</t>
+  </si>
+  <si>
+    <t>40750.00</t>
+  </si>
+  <si>
+    <t>11557.14</t>
+  </si>
+  <si>
+    <t>36500.00</t>
+  </si>
+  <si>
+    <t>12070.00</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>350.00</t>
+  </si>
+  <si>
+    <t>0.10</t>
+  </si>
+  <si>
+    <t>4752.00</t>
+  </si>
+  <si>
+    <t>9.60</t>
+  </si>
+  <si>
+    <t>45000.00</t>
+  </si>
+  <si>
+    <t>429.60</t>
+  </si>
+  <si>
+    <t>21991.70</t>
+  </si>
+  <si>
+    <t>40244.81</t>
+  </si>
+  <si>
+    <t>1152.00</t>
+  </si>
+  <si>
+    <t>2661.15</t>
+  </si>
+  <si>
+    <t>1366.00</t>
+  </si>
+  <si>
+    <t>900.00</t>
+  </si>
+  <si>
+    <t>844.90</t>
+  </si>
+  <si>
+    <t>86504.40</t>
+  </si>
+  <si>
+    <t>13160.00</t>
+  </si>
+  <si>
+    <t>2620.00</t>
+  </si>
+  <si>
+    <t>2682.00</t>
+  </si>
+  <si>
+    <t>2981.16</t>
+  </si>
+  <si>
+    <t>2100.00</t>
+  </si>
+  <si>
+    <t>10475.00</t>
+  </si>
+  <si>
+    <t>12230.00</t>
+  </si>
+  <si>
+    <t>13207.00</t>
+  </si>
+  <si>
+    <t>32096.55</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>37285.00</t>
+  </si>
+  <si>
+    <t>11339.33</t>
+  </si>
+  <si>
+    <t>770.00</t>
+  </si>
+  <si>
+    <t>215.00</t>
+  </si>
+  <si>
+    <t>15535.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>11900.00</t>
+  </si>
+  <si>
+    <t>27100.00</t>
+  </si>
+  <si>
+    <t>57000.00</t>
+  </si>
+  <si>
+    <t>116000.00</t>
+  </si>
+  <si>
+    <t>35000.00</t>
+  </si>
+  <si>
+    <t>13500.00</t>
+  </si>
+  <si>
+    <t>31000.00</t>
+  </si>
+  <si>
+    <t>10000.00</t>
+  </si>
+  <si>
+    <t>66000.00</t>
+  </si>
+  <si>
+    <t>779000.00</t>
+  </si>
+  <si>
+    <t>25100.00</t>
+  </si>
+  <si>
+    <t>23709.62</t>
+  </si>
+  <si>
+    <t>28333.52</t>
+  </si>
+  <si>
+    <t>8780.00</t>
+  </si>
+  <si>
+    <t>772.92</t>
+  </si>
+  <si>
+    <t>197.22</t>
+  </si>
+  <si>
+    <t>5262.00</t>
+  </si>
+  <si>
+    <t>240.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>6050.00</t>
+  </si>
+  <si>
+    <t>5000.00</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>8500.00</t>
+  </si>
+  <si>
+    <t>43504.40</t>
+  </si>
+  <si>
+    <t>15000.00</t>
+  </si>
+  <si>
+    <t>4860.00</t>
+  </si>
+  <si>
+    <t>3800.00</t>
+  </si>
+  <si>
+    <t>46113.00</t>
+  </si>
+  <si>
+    <t>18500.00</t>
+  </si>
+  <si>
+    <t>173700.00</t>
+  </si>
+  <si>
+    <t>7260.00</t>
+  </si>
+  <si>
+    <t>288.60</t>
+  </si>
+  <si>
+    <t>11858.00</t>
+  </si>
+  <si>
+    <t>12900.00</t>
+  </si>
+  <si>
+    <t>9100.00</t>
+  </si>
+  <si>
+    <t>31195.00</t>
+  </si>
+  <si>
+    <t>30350.00</t>
+  </si>
+  <si>
+    <t>123490.00</t>
+  </si>
+  <si>
+    <t>3781.25</t>
+  </si>
+  <si>
+    <t>6491.00</t>
+  </si>
+  <si>
+    <t>9058.60</t>
+  </si>
+  <si>
+    <t>360.00</t>
+  </si>
+  <si>
+    <t>297.32</t>
+  </si>
+  <si>
+    <t>166145.10</t>
+  </si>
+  <si>
+    <t>3042.00</t>
+  </si>
+  <si>
+    <t>10925.00</t>
+  </si>
+  <si>
+    <t>274145.00</t>
+  </si>
+  <si>
+    <t>32675.38</t>
+  </si>
+  <si>
+    <t>11985.00</t>
+  </si>
+  <si>
+    <t>10704.00</t>
+  </si>
+  <si>
+    <t>11160.00</t>
+  </si>
+  <si>
+    <t>6800.00</t>
+  </si>
+  <si>
+    <t>92641.11</t>
+  </si>
+  <si>
+    <t>60000.00</t>
+  </si>
+  <si>
+    <t>30000.00</t>
+  </si>
+  <si>
+    <t>75000.00</t>
+  </si>
+  <si>
+    <t>13200.00</t>
+  </si>
+  <si>
+    <t>480000.00</t>
+  </si>
+  <si>
+    <t>21888.00</t>
+  </si>
+  <si>
+    <t>10052200.19</t>
+  </si>
+  <si>
+    <t>6395.00</t>
+  </si>
+  <si>
+    <t>6047027.00</t>
+  </si>
+  <si>
+    <t>201500.00</t>
+  </si>
+  <si>
+    <t>266500.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>208000.00</t>
+  </si>
+  <si>
+    <t>377700.00</t>
+  </si>
+  <si>
+    <t>305400.00</t>
+  </si>
+  <si>
+    <t>380800.00</t>
+  </si>
+  <si>
+    <t>171200.00</t>
+  </si>
+  <si>
+    <t>338300.00</t>
+  </si>
+  <si>
+    <t>396500.00</t>
+  </si>
+  <si>
+    <t>403000.00</t>
+  </si>
+  <si>
+    <t>256300.00</t>
+  </si>
+  <si>
+    <t>416900.00</t>
+  </si>
+  <si>
+    <t>743300.00</t>
+  </si>
+  <si>
+    <t>367700.00</t>
+  </si>
+  <si>
+    <t>21000.00</t>
+  </si>
+  <si>
+    <t>533900.00</t>
+  </si>
+  <si>
+    <t>212470.00</t>
+  </si>
+  <si>
+    <t>922020.00</t>
+  </si>
+  <si>
+    <t>20400.00</t>
+  </si>
+  <si>
+    <t>628579.16</t>
+  </si>
+  <si>
+    <t>74764.20</t>
+  </si>
+  <si>
+    <t>1400.00</t>
+  </si>
+  <si>
+    <t>70500.00</t>
+  </si>
+  <si>
+    <t>208752.00</t>
+  </si>
+  <si>
+    <t>11000.00</t>
+  </si>
+  <si>
+    <t>118000.00</t>
+  </si>
+  <si>
+    <t>9600.00</t>
+  </si>
+  <si>
+    <t>96882.04</t>
+  </si>
+  <si>
+    <t>15500.00</t>
+  </si>
+  <si>
+    <t>380.00</t>
+  </si>
+  <si>
+    <t>48985.00</t>
   </si>
 </sst>
 </file>
